--- a/data/trans_dic/P16_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>24,72%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,92%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>35,53%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>15,51%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>14,89%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>19,52%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19,03%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>26,74%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,24</t>
+          <t>8,42; 13,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 14,35</t>
+          <t>8,28; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,97</t>
+          <t>8,81; 14,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,45</t>
+          <t>11,07; 17,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,5; 28,02</t>
+          <t>11,94; 18,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,98</t>
+          <t>21,43; 28,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,6</t>
+          <t>22,05; 29,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,8; 21,3</t>
+          <t>17,21; 22,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 30,6</t>
+          <t>14,92; 20,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,44; 32,03</t>
+          <t>16,19; 21,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 17,55</t>
+          <t>21,14; 27,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,38</t>
+          <t>25,98; 33,76</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 16,74</t>
+          <t>25,47; 31,99</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,22</t>
+          <t>31,97; 39,25</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 29,1</t>
+          <t>13,67; 17,34</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 16,32</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 17,04</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 21,86</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 25,51</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 29,28</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>28,24; 33,21</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>19,64%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>16,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,95%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>34,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>16,03%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>15,97%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>18,38%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>28,09%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,65</t>
+          <t>9,06; 16,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,47</t>
+          <t>7,88; 15,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,53</t>
+          <t>9,77; 17,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 18,74</t>
+          <t>11,13; 19,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 28,43</t>
+          <t>14,13; 22,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,32</t>
+          <t>17,23; 27,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,02</t>
+          <t>25,06; 37,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 21,99</t>
+          <t>16,41; 23,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 26,05</t>
+          <t>14,35; 21,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 42,1</t>
+          <t>16,36; 23,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,7</t>
+          <t>19,49; 27,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,03</t>
+          <t>28,25; 38,52</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,82</t>
+          <t>28,67; 41,58</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 21,11</t>
+          <t>26,62; 40,06</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 32,97</t>
+          <t>13,72; 18,82</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 17,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 18,91</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 21,26</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 29,31</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 32,73</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>27,44; 36,27</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>20,47%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,99%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,47%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>18,68%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,32%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>20,21%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>21,5%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>21,62%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 28,65</t>
+          <t>10,57; 27,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 25,44</t>
+          <t>10,3; 23,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 22,88</t>
+          <t>10,59; 22,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 23,21</t>
+          <t>10,45; 23,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>19,93; 46,13</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>15,59; 27,75</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 33,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 32,46</t>
+          <t>14,78; 26,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 33,88</t>
+          <t>17,03; 32,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>19,26; 32,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 34,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 40,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,45; 24,73</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,53; 27,04</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>15,35; 24,82</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 27,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 24,53</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 26,17</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16,49; 25,48</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 26,25</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>23,57; 39,47</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>24,19%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>16,09%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>14,59%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>27,04%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,4</t>
+          <t>10,1; 14,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,07</t>
+          <t>9,62; 14,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,78</t>
+          <t>10,42; 14,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,74</t>
+          <t>12,05; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 27,0</t>
+          <t>15,66; 21,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 21,99</t>
+          <t>21,54; 27,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,2</t>
+          <t>24,03; 30,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 21,17</t>
+          <t>17,87; 22,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 27,55</t>
+          <t>16,12; 20,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 32,78</t>
+          <t>17,78; 21,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,71; 17,67</t>
+          <t>21,67; 26,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,35</t>
+          <t>28,12; 34,2</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 17,54</t>
+          <t>27,14; 33,34</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 21,32</t>
+          <t>32,12; 37,77</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,0; 29,0</t>
+          <t>14,58; 17,41</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 16,54</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 17,71</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 20,74</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 26,84</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 29,19</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 33,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>175542</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>178021</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>180054</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>222499</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>242818</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56715</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58319</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>356435</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>317154</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>340538</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>436271</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>533333</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>68237</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83949</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>531977</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>495175</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>520591</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>658770</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>776150</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>124951</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>142268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>138143; 214164</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136870; 230858</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>144966; 231514</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>182094; 280835</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>195729; 300320</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49170; 64690</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>50384; 67145</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>307863; 409385</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>268744; 375635</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>296162; 393837</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>383989; 507911</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>468597; 608866</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>60579; 76087</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>75552; 92762</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>468807; 594693</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>424641; 563707</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>458906; 592186</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>588751; 756850</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>687160; 878278</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>113768; 136820</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>131255; 154342</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>171487</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>146583</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>176807</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>198174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>253154</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16269</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22517</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>276403</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>239870</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>267940</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>314373</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>459493</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22449</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22231</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>447890</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>386452</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>444747</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>512546</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>712647</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>38718</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>44749</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125615; 230132</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>108084; 216483</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134494; 236352</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>153705; 263557</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>195467; 311836</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12456; 20151</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18362; 27223</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>230941; 328414</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>199662; 296409</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>224142; 315494</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>267786; 372035</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>393133; 536019</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18794; 27264</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17813; 26804</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>383359; 525918</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>325300; 471244</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>383387; 519471</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>438571; 585702</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>625768; 813219</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>33033; 45125</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>38466; 50845</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70550</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66752</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69427</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>127183</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84302</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98262</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>104387</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>111057</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>125492</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>155910</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>168812</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>171138</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>180484</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>252675</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44705; 116064</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43293; 99452</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44790; 95854</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44199; 100653</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84247; 195041</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60897; 109767</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70149; 135624</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>78400; 132149</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>85853; 144033</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94340; 165197</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>120718; 204719</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>128351; 217769</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>136818; 211480</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>140562; 219128</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>196773; 329457</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>581.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>418638</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>395154</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>423612</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>490099</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>623154</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72984</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80836</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>717140</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>655285</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>712864</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>861701</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1118318</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>90686</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>106180</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1135778</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1050440</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1136477</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1351800</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1741473</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>163670</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>187017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>348304; 501014</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>331339; 485103</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>359037; 498771</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>415776; 573450</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>539412; 725098</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65003; 81824</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>72512; 91038</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>644884; 794853</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>580983; 745249</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>641261; 788239</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>780586; 950251</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1014346; 1233671</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>82351; 101172</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>97391; 114531</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1028977; 1228744</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>947468; 1165929</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1040863; 1248581</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1240429; 1462493</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1610855; 1892672</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>151684; 176644</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>173918; 199942</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
